--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB6DD30-9C42-4AC2-9C5F-D188A4B39112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25D2E4-2FE4-41E1-8F20-00D2A4D713BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>ny_ex_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람개비 무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1186,6 +1190,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8604</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1">
+        <v>50</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25D2E4-2FE4-41E1-8F20-00D2A4D713BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F62D5F-5D14-4386-92D6-B25380CAC080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>바람개비 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_0_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,6 +570,7 @@
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" customWidth="1"/>
     <col min="10" max="10" width="16.125" customWidth="1"/>
   </cols>
@@ -988,7 +993,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1023,7 +1028,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1058,7 +1063,7 @@
         <v>88</v>
       </c>
       <c r="C16" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1093,7 +1098,7 @@
         <v>9001</v>
       </c>
       <c r="C17" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1128,7 +1133,7 @@
         <v>9008</v>
       </c>
       <c r="C18" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1216,6 +1221,41 @@
         <v>32</v>
       </c>
       <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>9010</v>
+      </c>
+      <c r="C21">
+        <v>1500</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21">
+        <v>300</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F62D5F-5D14-4386-92D6-B25380CAC080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2EFAE9-DA4C-47D6-AB6F-FA5629370DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,19 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ny_ex_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ny_ex_1</t>
-  </si>
-  <si>
-    <t>ny_ex_2</t>
-  </si>
-  <si>
-    <t>ny_ex_3</t>
-  </si>
-  <si>
     <t>수미꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,27 +148,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ny_ex_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ny_ex_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바람개비 무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>em_0_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_1_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HotTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_1_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_1_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_1_8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +223,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +248,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -228,23 +265,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -558,13 +605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -575,7 +622,7 @@
     <col min="10" max="10" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,16 +648,16 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
@@ -633,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -662,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -691,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -720,13 +767,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -749,13 +796,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -778,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -803,8 +850,8 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>18</v>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H8">
         <v>300</v>
@@ -813,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>7</v>
       </c>
@@ -838,8 +885,8 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>19</v>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="H9">
         <v>300</v>
@@ -848,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
@@ -873,8 +920,8 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -883,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -908,23 +955,23 @@
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
-        <v>21</v>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10</v>
       </c>
@@ -944,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>11</v>
       </c>
@@ -964,28 +1011,28 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13" t="s">
-        <v>35</v>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1005,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1">
         <v>300</v>
@@ -1014,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1040,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1">
         <v>300</v>
@@ -1049,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1075,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1">
         <v>200</v>
@@ -1084,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1110,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1">
         <v>300</v>
@@ -1119,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="1" customFormat="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1139,13 +1186,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H18" s="1">
         <v>300</v>
@@ -1154,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1174,28 +1221,28 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
-      <c r="G19" t="s">
-        <v>34</v>
+      <c r="G19" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1209,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1">
         <v>50</v>
@@ -1218,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1238,13 +1285,13 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>300</v>
@@ -1253,9 +1300,114 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9017</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="2">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>9023</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="2">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>9009</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2EFAE9-DA4C-47D6-AB6F-FA5629370DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B05E1D-FBD0-4110-9D69-54C8CB97C055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,21 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>em_0_0</t>
-  </si>
-  <si>
-    <t>em_0_1</t>
-  </si>
-  <si>
-    <t>em_0_2</t>
-  </si>
-  <si>
-    <t>em_0_3</t>
-  </si>
-  <si>
-    <t>em_0_4</t>
-  </si>
-  <si>
     <t>lastexchange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,9 +126,6 @@
     <t>DdukGuk</t>
   </si>
   <si>
-    <t>Wind</t>
-  </si>
-  <si>
     <t>영혼석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>em_0_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>em_1_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,13 +171,66 @@
   </si>
   <si>
     <t>em_1_8</t>
+  </si>
+  <si>
+    <t>em_2_0</t>
+  </si>
+  <si>
+    <t>em_2_1</t>
+  </si>
+  <si>
+    <t>em_2_2</t>
+  </si>
+  <si>
+    <t>em_2_3</t>
+  </si>
+  <si>
+    <t>em_2_4</t>
+  </si>
+  <si>
+    <t>em_2_5</t>
+  </si>
+  <si>
+    <t>Flower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_2_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_2_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_2_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_2_9</t>
+  </si>
+  <si>
+    <t>수미꽃소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,12 +261,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFB5CEA8"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -276,7 +301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,9 +309,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,16 +627,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
     <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
@@ -622,7 +645,7 @@
     <col min="10" max="10" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,16 +671,16 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -680,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -709,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -738,13 +761,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -767,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -796,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -825,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -850,23 +873,23 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
+      <c r="G8" t="s">
+        <v>25</v>
       </c>
       <c r="H8">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -885,23 +908,23 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
+      <c r="G9" t="s">
+        <v>26</v>
       </c>
       <c r="H9">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -920,23 +943,23 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>34</v>
+      <c r="G10" t="s">
+        <v>27</v>
       </c>
       <c r="H10">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -955,23 +978,23 @@
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
+      <c r="G11" t="s">
+        <v>28</v>
       </c>
       <c r="H11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -991,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1016,23 +1039,23 @@
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>36</v>
+      <c r="G13" t="s">
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1052,22 +1075,22 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H14" s="1">
         <v>300</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1">
+      <c r="I14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1087,22 +1110,22 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1">
         <v>300</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1">
+      <c r="I15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1122,22 +1145,22 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H16" s="1">
-        <v>200</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1">
+        <v>300</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1157,22 +1180,22 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H17" s="1">
         <v>300</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1">
+      <c r="I17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1186,28 +1209,28 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1">
         <v>300</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="I18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1221,33 +1244,33 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>37</v>
+      <c r="G19" t="s">
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>8604</v>
+        <v>1415</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1256,61 +1279,61 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1">
         <v>50</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="I20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>9010</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>1500</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1">
         <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1">
         <v>300</v>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>9017</v>
       </c>
       <c r="C22" s="2">
@@ -1320,32 +1343,32 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2">
         <v>80</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H22" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K22" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>9023</v>
       </c>
       <c r="C23" s="2">
@@ -1355,32 +1378,32 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2">
         <v>80</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H23" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K23" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>9009</v>
       </c>
       <c r="C24" s="2">
@@ -1390,24 +1413,164 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2">
         <v>80</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="2">
+        <v>12</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9009</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="2">
+      <c r="K25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9023</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="1">
         <v>10</v>
       </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" s="2" t="b">
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9017</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="1">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B05E1D-FBD0-4110-9D69-54C8CB97C055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE4A015-12B5-450C-AE2E-410734C906E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수미꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lastexchange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,45 +130,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>em_1_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_1_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_1_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_1_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HotTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>em_1_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_1_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_1_8</t>
-  </si>
-  <si>
     <t>em_2_0</t>
   </si>
   <si>
@@ -223,6 +184,60 @@
   </si>
   <si>
     <t>마일리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_3_0</t>
+  </si>
+  <si>
+    <t>em_3_1</t>
+  </si>
+  <si>
+    <t>em_3_2</t>
+  </si>
+  <si>
+    <t>em_3_4</t>
+  </si>
+  <si>
+    <t>em_3_5</t>
+  </si>
+  <si>
+    <t>em_3_7</t>
+  </si>
+  <si>
+    <t>여우불소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도 해방서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_3_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_3_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_3_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_3_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,13 +686,13 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -703,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -732,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -761,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -790,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -819,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -848,149 +863,149 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
+        <v>9028</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2">
+        <v>80</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>9027</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8">
-        <v>2000</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8">
-        <v>500</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>73</v>
-      </c>
-      <c r="C9">
-        <v>400</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9">
-        <v>500</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="b">
+      <c r="F9" s="2">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>88</v>
-      </c>
-      <c r="C10">
-        <v>300</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10">
-        <v>300</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="b">
+      <c r="B10" s="2">
+        <v>9017</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2">
+        <v>80</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>9001</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11">
-        <v>300</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="b">
+      <c r="B11" s="2">
+        <v>9023</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1014,44 +1029,44 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>9008</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13">
-        <v>300</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="b">
+      <c r="B13" s="2">
+        <v>9009</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1075,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1">
         <v>300</v>
@@ -1084,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K14" s="1" t="b">
         <v>1</v>
@@ -1110,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1">
         <v>300</v>
@@ -1119,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K15" s="1" t="b">
         <v>1</v>
@@ -1145,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1">
         <v>300</v>
@@ -1154,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K16" s="1" t="b">
         <v>1</v>
@@ -1180,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1">
         <v>300</v>
@@ -1189,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K17" s="1" t="b">
         <v>1</v>
@@ -1215,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1">
         <v>300</v>
@@ -1224,44 +1239,44 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K18" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>9010</v>
-      </c>
-      <c r="C19">
-        <v>1000</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19">
+      <c r="B19" s="2">
+        <v>9026</v>
+      </c>
+      <c r="C19" s="2">
+        <v>250</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19">
-        <v>300</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" t="b">
+      <c r="G19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="2">
+        <v>200</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1279,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1">
         <v>50</v>
@@ -1288,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K20" s="1" t="b">
         <v>1</v>
@@ -1308,13 +1323,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1">
         <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1">
         <v>300</v>
@@ -1323,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K21" s="1" t="b">
         <v>1</v>
@@ -1334,31 +1349,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>9017</v>
+        <v>9016</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H22" s="2">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K22" s="2" t="b">
         <v>1</v>
@@ -1369,31 +1384,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>9023</v>
+        <v>9010</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H23" s="2">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="I23" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K23" s="2" t="b">
         <v>1</v>
@@ -1404,34 +1419,34 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>9009</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H24" s="2">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="I24" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1448,13 +1463,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1">
         <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H25" s="1">
         <v>10</v>
@@ -1463,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K25" s="1" t="b">
         <v>1</v>
@@ -1483,13 +1498,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1">
         <v>20</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H26" s="1">
         <v>10</v>
@@ -1498,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K26" s="1" t="b">
         <v>1</v>
@@ -1518,13 +1533,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1">
         <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H27" s="1">
         <v>10</v>
@@ -1533,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K27" s="1" t="b">
         <v>1</v>
@@ -1553,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1">
         <v>20</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H28" s="1">
         <v>10</v>
@@ -1568,10 +1583,80 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>73</v>
+      </c>
+      <c r="C29" s="2">
+        <v>400</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K28" s="1" t="b">
-        <v>1</v>
+      <c r="H29" s="2">
+        <v>500</v>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="2">
+        <v>500</v>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE4A015-12B5-450C-AE2E-410734C906E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A74863-D3D8-4292-BFE6-453209ED716A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
+    <sheet name="balance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바람개비 무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HotTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +235,98 @@
   </si>
   <si>
     <t>em_3_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스튬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">영혼석 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바캉스 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 미션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시즌 미션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 획득 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교환 가능 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 소모 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 소탕권 시리즈는 대략 10일치 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 마일리지는 10개 소량 제공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +363,24 @@
       <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -316,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +431,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,7 +758,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -883,13 +996,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2">
         <v>80</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2">
         <v>10</v>
@@ -898,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="b">
         <v>1</v>
@@ -918,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2">
         <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2">
         <v>10</v>
@@ -933,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="b">
         <v>1</v>
@@ -953,13 +1066,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2">
         <v>80</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
@@ -968,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="b">
         <v>1</v>
@@ -988,13 +1101,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
         <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="2">
         <v>10</v>
@@ -1003,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="b">
         <v>1</v>
@@ -1049,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2">
         <v>80</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2">
         <v>10</v>
@@ -1064,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="2" t="b">
         <v>1</v>
@@ -1075,34 +1188,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>46</v>
+        <v>1437</v>
       </c>
       <c r="C14" s="1">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1110,31 +1220,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>73</v>
+        <v>9000</v>
       </c>
       <c r="C15" s="1">
-        <v>700</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H15" s="1">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" s="1" t="b">
         <v>1</v>
@@ -1145,31 +1255,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>88</v>
+        <v>9028</v>
       </c>
       <c r="C16" s="1">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" s="1" t="b">
         <v>1</v>
@@ -1180,31 +1290,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>9001</v>
+        <v>9027</v>
       </c>
       <c r="C17" s="1">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17" s="1" t="b">
         <v>1</v>
@@ -1215,31 +1325,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>9008</v>
+        <v>9017</v>
       </c>
       <c r="C18" s="1">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" s="1" t="b">
         <v>1</v>
@@ -1259,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="2">
         <v>200</v>
@@ -1274,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" s="2" t="b">
         <v>1</v>
@@ -1285,7 +1395,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1415</v>
+        <v>9023</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1294,16 +1404,22 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F20" s="1">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1">
+        <v>30</v>
       </c>
       <c r="I20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" s="1" t="b">
         <v>1</v>
@@ -1314,31 +1430,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>9010</v>
+        <v>9009</v>
       </c>
       <c r="C21" s="1">
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1">
+        <v>40</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H21" s="1">
-        <v>300</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K21" s="1" t="b">
         <v>1</v>
@@ -1358,13 +1474,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2">
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" s="2">
         <v>200</v>
@@ -1373,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" s="2" t="b">
         <v>1</v>
@@ -1399,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="2">
         <v>300</v>
@@ -1408,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K23" s="2" t="b">
         <v>1</v>
@@ -1434,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" s="2">
         <v>300</v>
@@ -1443,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="2" t="b">
         <v>0</v>
@@ -1454,31 +1570,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>9009</v>
+        <v>9010</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" s="1">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K25" s="1" t="b">
         <v>1</v>
@@ -1489,31 +1605,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>9023</v>
+        <v>9008</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="1">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K26" s="1" t="b">
         <v>1</v>
@@ -1524,31 +1640,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>9017</v>
+        <v>9001</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27" s="1">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K27" s="1" t="b">
         <v>1</v>
@@ -1559,31 +1675,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>9000</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="1">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K28" s="1" t="b">
         <v>1</v>
@@ -1609,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2">
         <v>500</v>
@@ -1618,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" s="2" t="b">
         <v>0</v>
@@ -1644,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" s="2">
         <v>500</v>
@@ -1653,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K30" s="2" t="b">
         <v>0</v>
@@ -1664,4 +1780,343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
+  <dimension ref="B2:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f>E6*F6*C3</f>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7">
+        <f>E7*F7</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G9" s="4">
+        <f>G6+G7</f>
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>F13*G13</f>
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <f>E13*G13</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H22" si="0">F14*G14</f>
+        <v>200</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I22" si="1">E14*G14</f>
+        <v>10</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20">
+        <v>2000</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>300</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21">
+        <v>700</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>300</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>600</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>300</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f>SUM(H13:H22)</f>
+        <v>4810</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>